--- a/medicine/Enfance/Taux_de_succion/Taux_de_succion.xlsx
+++ b/medicine/Enfance/Taux_de_succion/Taux_de_succion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taux de succion est un indice comportemental utilisé en psychologie expérimentale qui permet de mesurer de façon indirecte l'intérêt d'un nourrisson ou d'un jeune enfant pour un stimulus. Cette méthode utilise une tétine électronique qu'on donne à l'enfant pendant qu'on lui présente des stimuli. Il a en effet été observé que l'enfant tète d'autant plus vite et d'autant plus fort lorsqu'il est intéressé par un stimulus. 
 </t>
